--- a/NEW HR/MERCADO, ARLENNIE.xlsx
+++ b/NEW HR/MERCADO, ARLENNIE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>PERIOD</t>
   </si>
@@ -297,6 +297,18 @@
   </si>
   <si>
     <t>9/7,12/2023</t>
+  </si>
+  <si>
+    <t>9/25,26/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>10/23-25/2023</t>
+  </si>
+  <si>
+    <t>11/7,8,10/2023</t>
   </si>
 </sst>
 </file>
@@ -988,7 +1000,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1317,12 +1329,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K134"/>
+  <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A87" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A99" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="I104" sqref="I104"/>
+      <selection pane="bottomLeft" activeCell="K107" sqref="K107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,7 +1497,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>12.518000000000001</v>
+        <v>15.018000000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1495,7 +1507,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>36.167000000000002</v>
+        <v>30.667000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3513,13 +3525,15 @@
       <c r="B104" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C104" s="13"/>
+      <c r="C104" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D104" s="39"/>
       <c r="E104" s="9"/>
       <c r="F104" s="20"/>
-      <c r="G104" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G104" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H104" s="39">
         <v>2</v>
@@ -3531,10 +3545,10 @@
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B105" s="20"/>
+      <c r="A105" s="40"/>
+      <c r="B105" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
       <c r="E105" s="9"/>
@@ -3543,30 +3557,48 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H105" s="39"/>
+      <c r="H105" s="39">
+        <v>2</v>
+      </c>
       <c r="I105" s="9"/>
       <c r="J105" s="11"/>
-      <c r="K105" s="20"/>
+      <c r="K105" s="20" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="13"/>
+      <c r="A106" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B106" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C106" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D106" s="39"/>
       <c r="E106" s="9"/>
       <c r="F106" s="20"/>
-      <c r="G106" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H106" s="39"/>
+      <c r="G106" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H106" s="39">
+        <v>3</v>
+      </c>
       <c r="I106" s="9"/>
       <c r="J106" s="11"/>
-      <c r="K106" s="20"/>
+      <c r="K106" s="20" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="40"/>
-      <c r="B107" s="20"/>
+      <c r="A107" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B107" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
       <c r="E107" s="9"/>
@@ -3575,13 +3607,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H107" s="39"/>
+      <c r="H107" s="39">
+        <v>3</v>
+      </c>
       <c r="I107" s="9"/>
       <c r="J107" s="11"/>
-      <c r="K107" s="20"/>
+      <c r="K107" s="20" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="40"/>
+      <c r="A108" s="40">
+        <v>45261</v>
+      </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
@@ -3597,7 +3635,9 @@
       <c r="K108" s="20"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="40"/>
+      <c r="A109" s="48" t="s">
+        <v>89</v>
+      </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -3613,7 +3653,9 @@
       <c r="K109" s="20"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="40"/>
+      <c r="A110" s="40">
+        <v>45292</v>
+      </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
@@ -3629,7 +3671,9 @@
       <c r="K110" s="20"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="40"/>
+      <c r="A111" s="40">
+        <v>45323</v>
+      </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
@@ -3645,7 +3689,9 @@
       <c r="K111" s="20"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="40"/>
+      <c r="A112" s="40">
+        <v>45352</v>
+      </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
       <c r="D112" s="39"/>
@@ -3661,7 +3707,9 @@
       <c r="K112" s="20"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="40"/>
+      <c r="A113" s="40">
+        <v>45383</v>
+      </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
       <c r="D113" s="39"/>
@@ -3677,7 +3725,9 @@
       <c r="K113" s="20"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="40"/>
+      <c r="A114" s="40">
+        <v>45413</v>
+      </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
@@ -3693,7 +3743,9 @@
       <c r="K114" s="20"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="40"/>
+      <c r="A115" s="40">
+        <v>45444</v>
+      </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
@@ -3709,7 +3761,9 @@
       <c r="K115" s="20"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="40"/>
+      <c r="A116" s="40">
+        <v>45474</v>
+      </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
@@ -3725,7 +3779,9 @@
       <c r="K116" s="20"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="40"/>
+      <c r="A117" s="40">
+        <v>45505</v>
+      </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
@@ -3997,20 +4053,52 @@
       <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="41"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="43"/>
+      <c r="A134" s="40"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="39"/>
       <c r="E134" s="9"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H134" s="43"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="39"/>
       <c r="I134" s="9"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="15"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="40"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="39"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="39"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="41"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="43"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
